--- a/BackTest/2020-01-15 BackTest XRP.xlsx
+++ b/BackTest/2020-01-15 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-794299.2138339502</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-794299.2138339502</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>237.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-793756.2952339503</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>237.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-829506.8216339502</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-829506.8216339502</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-829506.8216339502</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>-986556.6306339502</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>-985848.4807456803</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>237.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>-985848.4807456803</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>-996158.4259456802</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>-794113.6343456802</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>237.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>-794113.6343456802</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>-794113.6343456802</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +880,11 @@
         <v>-794113.6343456802</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,17 +913,11 @@
         <v>-794113.6343456802</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +946,11 @@
         <v>-788318.6047456802</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +979,11 @@
         <v>-756397.1686456802</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1108,17 +1012,11 @@
         <v>-756397.1686456802</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>238.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1147,17 +1045,11 @@
         <v>-768295.4697456802</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>238.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,17 +1078,11 @@
         <v>-822738.7904456803</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1225,17 +1111,11 @@
         <v>-866303.7174456803</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1264,17 +1144,11 @@
         <v>-865571.1405456803</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1303,17 +1177,11 @@
         <v>-880522.5131229704</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1342,17 +1210,11 @@
         <v>-878013.0667229703</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1381,17 +1243,11 @@
         <v>-878522.4490229704</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1420,17 +1276,11 @@
         <v>-878569.4490229704</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1459,17 +1309,11 @@
         <v>-878569.4490229704</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1498,17 +1342,11 @@
         <v>-878569.4490229704</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1537,17 +1375,11 @@
         <v>-865598.4146229704</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1576,17 +1408,11 @@
         <v>-864093.3328619704</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1615,17 +1441,11 @@
         <v>-859531.7645619704</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1654,17 +1474,11 @@
         <v>-864332.2478619703</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1693,17 +1507,11 @@
         <v>-843083.2251619704</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>238.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1732,17 +1540,11 @@
         <v>-843073.2251619704</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1771,17 +1573,11 @@
         <v>-843167.0474619704</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1810,17 +1606,11 @@
         <v>-843167.0474619704</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1849,17 +1639,11 @@
         <v>-845167.6380619704</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1888,17 +1672,11 @@
         <v>-895167.6380619704</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1927,17 +1705,11 @@
         <v>-895167.6380619704</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1966,17 +1738,11 @@
         <v>-895167.6380619704</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2005,17 +1771,11 @@
         <v>-882833.2374619703</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2044,17 +1804,11 @@
         <v>-895167.6380619704</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2083,17 +1837,11 @@
         <v>-895167.6380619704</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2122,17 +1870,11 @@
         <v>-884901.3994619703</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2161,17 +1903,11 @@
         <v>-895426.6984619703</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2200,17 +1936,11 @@
         <v>-875605.6444619703</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2239,17 +1969,11 @@
         <v>-882321.0074619703</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2278,17 +2002,11 @@
         <v>-882321.0074619703</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2317,17 +2035,11 @@
         <v>-882321.0074619703</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2356,17 +2068,11 @@
         <v>-881392.3319619703</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2395,17 +2101,11 @@
         <v>-879013.6737619704</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2434,17 +2134,11 @@
         <v>-801939.3579981604</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2473,17 +2167,11 @@
         <v>-717301.7120619704</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2512,17 +2200,11 @@
         <v>-717301.7120619704</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2551,17 +2233,11 @@
         <v>-717581.0812619703</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2590,17 +2266,11 @@
         <v>-717581.0812619703</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2629,17 +2299,11 @@
         <v>-710424.6051619704</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2668,17 +2332,11 @@
         <v>-710424.6051619704</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2711,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2748,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2785,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2822,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2859,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2896,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2933,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2970,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3007,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3044,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3081,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3118,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3155,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3192,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3229,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3266,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3303,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3340,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3377,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3414,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3451,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3488,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3525,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3562,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3599,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3636,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3673,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3706,17 +3256,11 @@
         <v>-814918.1162518704</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3745,17 +3289,11 @@
         <v>-818738.2660518704</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3784,17 +3322,11 @@
         <v>-812574.7031518704</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>237.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3823,17 +3355,11 @@
         <v>-813574.7031518704</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3862,17 +3388,11 @@
         <v>-807749.4373518704</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3901,17 +3421,11 @@
         <v>-808949.4373518704</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3940,17 +3454,11 @@
         <v>-805897.8636518704</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3979,17 +3487,11 @@
         <v>-805897.8636518704</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4018,17 +3520,11 @@
         <v>-805897.8636518704</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4057,17 +3553,11 @@
         <v>-805997.8636518704</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4096,17 +3586,11 @@
         <v>-805268.2899518705</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4135,17 +3619,11 @@
         <v>-805735.2077518705</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4174,17 +3652,11 @@
         <v>-805005.6340518706</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>237.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4213,17 +3685,11 @@
         <v>-805005.6340518706</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4252,17 +3718,11 @@
         <v>-805005.6340518706</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4291,17 +3751,11 @@
         <v>-805005.6340518706</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4330,17 +3784,11 @@
         <v>-805005.6340518706</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4369,17 +3817,11 @@
         <v>-860741.2677518706</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4408,17 +3850,11 @@
         <v>-860741.2677518706</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4447,17 +3883,11 @@
         <v>-861080.3677518705</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4486,17 +3916,11 @@
         <v>-901770.3274518705</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>237.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4525,17 +3949,11 @@
         <v>-891770.3274518705</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>237.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4564,17 +3982,11 @@
         <v>-891770.3274518705</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4603,17 +4015,11 @@
         <v>-893770.3274518705</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4642,17 +4048,11 @@
         <v>-893349.8060052806</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>237.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4681,17 +4081,11 @@
         <v>-868390.5291518706</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4720,17 +4114,11 @@
         <v>-868595.8920984606</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4759,17 +4147,11 @@
         <v>-745432.3571984606</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4798,17 +4180,11 @@
         <v>-747821.3314984606</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4837,17 +4213,11 @@
         <v>-747821.3314984606</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4876,17 +4246,11 @@
         <v>-728328.5726984607</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4915,17 +4279,11 @@
         <v>-738238.4808984606</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4954,17 +4312,11 @@
         <v>-738238.4808984606</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4993,17 +4345,11 @@
         <v>-737990.0524984606</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5032,17 +4378,11 @@
         <v>-734082.1501984607</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5071,17 +4411,11 @@
         <v>-734082.1501984607</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5110,17 +4444,11 @@
         <v>-727974.4328984607</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5149,17 +4477,11 @@
         <v>-727974.4328984607</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5188,17 +4510,11 @@
         <v>-727974.4328984607</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5227,17 +4543,11 @@
         <v>-728500.4647984606</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5266,17 +4576,11 @@
         <v>-723809.6357984606</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5305,17 +4609,11 @@
         <v>-733716.7396984606</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5344,17 +4642,11 @@
         <v>-727299.3588984605</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>238.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5383,17 +4675,11 @@
         <v>-727299.3588984605</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5422,17 +4708,11 @@
         <v>-727268.0069984605</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5461,17 +4741,11 @@
         <v>-727268.0069984605</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5500,17 +4774,11 @@
         <v>-727838.3968984605</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5539,17 +4807,11 @@
         <v>-727838.3968984605</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5578,17 +4840,11 @@
         <v>-727838.3968984605</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5617,17 +4873,11 @@
         <v>-724159.4127984605</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5656,17 +4906,11 @@
         <v>-741915.2896191404</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5695,17 +4939,11 @@
         <v>-741863.3078191405</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5734,17 +4972,11 @@
         <v>-744384.0955191405</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5773,17 +5005,11 @@
         <v>-744384.0955191405</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5812,17 +5038,11 @@
         <v>-744384.0955191405</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5851,17 +5071,11 @@
         <v>-744384.0955191405</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5890,17 +5104,11 @@
         <v>-747045.7061191405</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5929,17 +5137,11 @@
         <v>-747023.7052802205</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5968,17 +5170,11 @@
         <v>-747018.7052802205</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>238.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6007,17 +5203,11 @@
         <v>-748243.7792802205</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6046,17 +5236,11 @@
         <v>-747886.5582802205</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6085,17 +5269,11 @@
         <v>-748556.5582802205</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6124,17 +5302,11 @@
         <v>-748556.5582802205</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6163,17 +5335,11 @@
         <v>-748556.5582802205</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6202,17 +5368,11 @@
         <v>-748556.5582802205</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6241,17 +5401,11 @@
         <v>-772039.3281802204</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6280,17 +5434,11 @@
         <v>-747423.7034802204</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6319,17 +5467,11 @@
         <v>-735371.5305802204</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6358,17 +5500,11 @@
         <v>-736269.2300802204</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6397,17 +5533,11 @@
         <v>-736269.2300802204</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6436,17 +5566,11 @@
         <v>-736269.2300802204</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6475,17 +5599,11 @@
         <v>-736269.2300802204</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6514,17 +5632,11 @@
         <v>-736269.2300802204</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6553,17 +5665,11 @@
         <v>-735850.6374802204</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6592,17 +5698,11 @@
         <v>-737220.7147802204</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6631,17 +5731,11 @@
         <v>-701114.2330387604</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6670,17 +5764,11 @@
         <v>-701114.2330387604</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6709,17 +5797,11 @@
         <v>-701114.2330387604</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6748,17 +5830,11 @@
         <v>-703314.2330387604</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6787,17 +5863,11 @@
         <v>-697913.9690802203</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6826,17 +5896,11 @@
         <v>-697913.9690802203</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6865,17 +5929,11 @@
         <v>-686419.6200802203</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6904,17 +5962,11 @@
         <v>-698494.3047252303</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6943,17 +5995,11 @@
         <v>-710114.2710252303</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6982,17 +6028,11 @@
         <v>-709773.1982252303</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7021,17 +6061,11 @@
         <v>-709773.1982252303</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7060,17 +6094,11 @@
         <v>-705086.6268252303</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7099,17 +6127,11 @@
         <v>-710012.7154252303</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7138,17 +6160,11 @@
         <v>-709883.5669353004</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7177,17 +6193,11 @@
         <v>-714960.8266353004</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>238.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7216,17 +6226,11 @@
         <v>-714530.0749353004</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7255,17 +6259,11 @@
         <v>-716044.4501446804</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7294,17 +6292,11 @@
         <v>-724518.1008446804</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7333,17 +6325,11 @@
         <v>-841455.2655446804</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7372,17 +6358,11 @@
         <v>-841353.8011446804</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7411,17 +6391,11 @@
         <v>-866524.5949446803</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>239.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7454,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7491,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7528,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7565,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7602,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7639,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7676,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7713,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7750,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7787,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7824,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7861,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7898,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7935,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7972,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8009,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8046,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8083,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8120,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8157,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8194,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8231,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8268,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8342,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8379,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8416,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8453,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8490,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8527,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8564,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8601,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8638,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8675,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8712,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8749,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8786,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8823,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8860,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8897,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8934,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8971,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9008,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9045,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9082,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9119,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9156,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9193,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9230,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9267,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9304,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9341,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9378,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9415,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9452,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9489,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9563,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9600,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9637,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9674,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9711,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9748,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9785,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9822,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9859,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9896,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9933,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9970,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10007,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10044,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10081,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10118,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10155,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10192,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10229,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10266,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10303,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10340,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10377,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10414,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10451,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10488,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10525,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10562,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10599,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10636,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10673,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10710,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10784,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10821,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10858,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10895,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10932,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10969,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11006,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11043,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11080,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11117,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11154,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11191,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11228,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11265,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11302,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11339,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11376,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11413,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11450,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11487,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11524,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11561,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11598,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11635,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11672,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11709,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11746,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11783,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11820,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11857,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11894,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11931,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12005,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12042,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12079,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12116,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12153,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12190,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12227,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12264,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12301,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12338,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12375,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12412,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12449,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12486,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12523,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12560,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12597,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12634,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12671,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12708,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12745,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12782,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12819,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12856,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12893,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12930,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12967,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13004,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13041,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13078,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13115,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13152,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13189,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13226,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13263,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13300,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13337,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13374,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13411,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13448,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13485,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13522,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13559,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13596,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13633,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13670,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13707,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13744,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13781,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13814,15 +12100,11 @@
         <v>498111.2002995994</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13851,15 +12133,11 @@
         <v>454538.0965599394</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13888,15 +12166,11 @@
         <v>488396.7787962994</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13925,15 +12199,11 @@
         <v>757495.6485962993</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13962,15 +12232,11 @@
         <v>757495.6485962993</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13999,15 +12265,11 @@
         <v>709458.3207962994</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14040,12 +12302,10 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
       <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
@@ -15688,7 +13948,7 @@
         <v>2019191.22409469</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15754,7 +14014,7 @@
         <v>1715448.97665313</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15787,7 +14047,7 @@
         <v>1720340.120753129</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15820,7 +14080,7 @@
         <v>1715274.656853129</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15853,7 +14113,7 @@
         <v>1747824.389953129</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15886,7 +14146,7 @@
         <v>1775392.192653129</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15919,7 +14179,7 @@
         <v>1914076.746911569</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15952,7 +14212,7 @@
         <v>1911269.910758669</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16315,7 +14575,7 @@
         <v>2223782.731544959</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -17305,7 +15565,7 @@
         <v>3145495.461984008</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17338,7 +15598,7 @@
         <v>3143275.448884008</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17668,7 +15928,7 @@
         <v>3034515.392761327</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17701,7 +15961,7 @@
         <v>3034515.392761327</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17734,7 +15994,7 @@
         <v>3027686.336002257</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17767,7 +16027,7 @@
         <v>3041780.866202257</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17800,7 +16060,7 @@
         <v>3042492.920680607</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17833,7 +16093,7 @@
         <v>3131200.674629737</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17899,7 +16159,7 @@
         <v>3130341.141929737</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17932,7 +16192,7 @@
         <v>3127728.487329737</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17965,7 +16225,7 @@
         <v>3103016.061929737</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17998,7 +16258,7 @@
         <v>3103025.826729737</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18031,7 +16291,7 @@
         <v>3103025.826729737</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18064,7 +16324,7 @@
         <v>3097194.218729737</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18097,7 +16357,7 @@
         <v>3097194.218729737</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18130,7 +16390,7 @@
         <v>3107123.373885117</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18163,7 +16423,7 @@
         <v>3098070.474385117</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18196,7 +16456,7 @@
         <v>3098070.474385117</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18229,7 +16489,7 @@
         <v>3252709.333585117</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18262,7 +16522,7 @@
         <v>3252709.333585117</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18295,7 +16555,7 @@
         <v>3232565.996885117</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18328,7 +16588,7 @@
         <v>3232565.996885117</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18361,7 +16621,7 @@
         <v>3296107.653885117</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18394,7 +16654,7 @@
         <v>3296256.660985117</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18427,7 +16687,7 @@
         <v>3296256.660985117</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18460,7 +16720,7 @@
         <v>3296243.685985117</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18493,7 +16753,7 @@
         <v>3301286.533371507</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18526,7 +16786,7 @@
         <v>3447173.408971507</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18559,7 +16819,7 @@
         <v>3447173.408971507</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18592,7 +16852,7 @@
         <v>3448944.061871507</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18625,7 +16885,7 @@
         <v>3448944.061871507</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18658,7 +16918,7 @@
         <v>3459306.295171507</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -20275,7 +18535,7 @@
         <v>-65005171.5865205</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20341,7 +18601,7 @@
         <v>-65005171.5865205</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20935,7 +19195,7 @@
         <v>-64323355.19696408</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20968,7 +19228,7 @@
         <v>-64390734.07926407</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21001,7 +19261,7 @@
         <v>-64064704.24046408</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21034,7 +19294,7 @@
         <v>-64064704.24046408</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21067,7 +19327,7 @@
         <v>-64125577.84886408</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21100,7 +19360,7 @@
         <v>-64075336.84626408</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21133,7 +19393,7 @@
         <v>-64660155.59356408</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21166,7 +19426,7 @@
         <v>-64660155.59356408</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21199,7 +19459,7 @@
         <v>-64568872.91376408</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21232,7 +19492,7 @@
         <v>-64441751.99656408</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21265,7 +19525,7 @@
         <v>-64534165.16366408</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21298,7 +19558,7 @@
         <v>-64567425.29666408</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21331,7 +19591,7 @@
         <v>-64567425.29666408</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21364,7 +19624,7 @@
         <v>-64468451.17765478</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21397,7 +19657,7 @@
         <v>-64462946.49235474</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21430,7 +19690,7 @@
         <v>-64469874.68325474</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21463,7 +19723,7 @@
         <v>-64321742.00266408</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21496,7 +19756,7 @@
         <v>-64177569.20436408</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21529,7 +19789,7 @@
         <v>-64177569.20436408</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21562,7 +19822,7 @@
         <v>-64269391.63696408</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21595,7 +19855,7 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21628,7 +19888,7 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21661,7 +19921,7 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21694,7 +19954,7 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21727,7 +19987,7 @@
         <v>-64280976.69676409</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21760,7 +20020,7 @@
         <v>-64280976.69676409</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21793,7 +20053,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21826,7 +20086,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21859,7 +20119,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21892,7 +20152,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21925,7 +20185,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21958,7 +20218,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21991,7 +20251,7 @@
         <v>-64172430.60446409</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22024,7 +20284,7 @@
         <v>-64172430.60446409</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22057,7 +20317,7 @@
         <v>-64131134.89876409</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22090,7 +20350,7 @@
         <v>-64131134.89876409</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22123,7 +20383,7 @@
         <v>-64148560.73956409</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22156,7 +20416,7 @@
         <v>-64240088.40026409</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22189,7 +20449,7 @@
         <v>-64235284.32306409</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22222,7 +20482,7 @@
         <v>-64214688.10356409</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22255,7 +20515,7 @@
         <v>-64317173.57366409</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22288,7 +20548,7 @@
         <v>-64290581.88118276</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22321,7 +20581,7 @@
         <v>-64295884.96137449</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22354,7 +20614,7 @@
         <v>-64219704.86397449</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22387,7 +20647,7 @@
         <v>-64171442.66247449</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22420,7 +20680,7 @@
         <v>-64124055.64267449</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22453,7 +20713,7 @@
         <v>-64047546.26844387</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22486,7 +20746,7 @@
         <v>-63997708.64374755</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22519,7 +20779,7 @@
         <v>-64032666.12044755</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22552,7 +20812,7 @@
         <v>-64186567.15884755</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22585,7 +20845,7 @@
         <v>-64186567.15884755</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22618,7 +20878,7 @@
         <v>-64186567.15884755</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22651,7 +20911,7 @@
         <v>-64275875.55284755</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22684,7 +20944,7 @@
         <v>-64235369.47654755</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22717,7 +20977,7 @@
         <v>-64235369.47654755</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22750,7 +21010,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22783,7 +21043,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22816,7 +21076,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22849,7 +21109,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22882,7 +21142,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22915,7 +21175,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22948,7 +21208,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22981,7 +21241,7 @@
         <v>-64273525.98884755</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23014,7 +21274,7 @@
         <v>-64273292.17554755</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23047,7 +21307,7 @@
         <v>-64273292.17554755</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23080,7 +21340,7 @@
         <v>-64273292.17554755</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23113,7 +21373,7 @@
         <v>-64352633.58064755</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23146,7 +21406,7 @@
         <v>-64352633.58064755</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23179,7 +21439,7 @@
         <v>-64352633.58064755</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23212,7 +21472,7 @@
         <v>-64407633.31234755</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23245,7 +21505,7 @@
         <v>-64407633.31234755</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23278,7 +21538,7 @@
         <v>-64518885.12804756</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23311,7 +21571,7 @@
         <v>-64487855.65654755</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23344,7 +21604,7 @@
         <v>-64487855.65654755</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23377,7 +21637,7 @@
         <v>-64161913.11294755</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23410,7 +21670,7 @@
         <v>-64161913.11294755</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23443,7 +21703,7 @@
         <v>-63629482.53014755</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23476,7 +21736,7 @@
         <v>-63475290.20154756</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23509,7 +21769,7 @@
         <v>-63478174.09334756</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23542,7 +21802,7 @@
         <v>-63255241.24184756</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23575,7 +21835,7 @@
         <v>-63185852.90144756</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23608,7 +21868,7 @@
         <v>-63147290.83354755</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23641,7 +21901,7 @@
         <v>-63147290.83354755</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23674,7 +21934,7 @@
         <v>-63139938.02474756</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23707,7 +21967,7 @@
         <v>-63139938.02474756</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23740,7 +22000,7 @@
         <v>-63139938.02474756</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23773,7 +22033,7 @@
         <v>-62421959.99654756</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23806,7 +22066,7 @@
         <v>-62421959.99654756</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23839,7 +22099,7 @@
         <v>-62435866.10504755</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23872,7 +22132,7 @@
         <v>-62452403.88404755</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23905,7 +22165,7 @@
         <v>-62452403.88404755</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23938,7 +22198,7 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23971,7 +22231,7 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24004,7 +22264,7 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24037,7 +22297,7 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24070,7 +22330,7 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24103,7 +22363,7 @@
         <v>-62504715.82959767</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24136,7 +22396,7 @@
         <v>-62506317.30219767</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24169,7 +22429,7 @@
         <v>-62545869.76419767</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24202,7 +22462,7 @@
         <v>-62484413.11939767</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24235,7 +22495,7 @@
         <v>-62484413.11939767</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24268,7 +22528,7 @@
         <v>-62567436.17129767</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24301,7 +22561,7 @@
         <v>-62567436.17129767</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24334,7 +22594,7 @@
         <v>-62506516.75772889</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24367,7 +22627,7 @@
         <v>-62502652.04892889</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24400,7 +22660,7 @@
         <v>-62502652.04892889</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24433,7 +22693,7 @@
         <v>-62504129.20012888</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24466,7 +22726,7 @@
         <v>-62512493.29502888</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24499,7 +22759,7 @@
         <v>-62480493.29502888</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24532,7 +22792,7 @@
         <v>-62480493.29502888</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24565,7 +22825,7 @@
         <v>-62587065.2497501</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24598,7 +22858,7 @@
         <v>-62608453.9169501</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24631,7 +22891,7 @@
         <v>-62659459.2972501</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24664,7 +22924,7 @@
         <v>-62696434.1011501</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24697,7 +22957,7 @@
         <v>-62957884.34963442</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24730,7 +22990,7 @@
         <v>-62957884.34963442</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24763,7 +23023,7 @@
         <v>-62999557.69813442</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24796,7 +23056,7 @@
         <v>-63104276.75173442</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24829,7 +23089,7 @@
         <v>-63153584.25413442</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24862,7 +23122,7 @@
         <v>-63089613.39841099</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24895,7 +23155,7 @@
         <v>-63089613.39841099</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24928,7 +23188,7 @@
         <v>-63089613.39841099</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25159,11 +23419,17 @@
         <v>-62877943.70901099</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>242.8</v>
+      </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25192,11 +23458,17 @@
         <v>-63085516.92361099</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>243</v>
+      </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25225,11 +23497,17 @@
         <v>-63085505.92361099</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>242.7</v>
+      </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25258,11 +23536,17 @@
         <v>-63109274.15701099</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>242.9</v>
+      </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25291,11 +23575,17 @@
         <v>-63130850.82831099</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>242.8</v>
+      </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25324,11 +23614,17 @@
         <v>-63130850.82831099</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>242.7</v>
+      </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25357,11 +23653,17 @@
         <v>-63130850.82831099</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>242.7</v>
+      </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25390,11 +23692,17 @@
         <v>-63204541.53961099</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>242.7</v>
+      </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25423,11 +23731,17 @@
         <v>-63205579.49741099</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>242.4</v>
+      </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25456,11 +23770,17 @@
         <v>-63205579.49741099</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>242.3</v>
+      </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25489,11 +23809,17 @@
         <v>-63201750.29061099</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>242.3</v>
+      </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25522,11 +23848,17 @@
         <v>-63201750.29061099</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>242.4</v>
+      </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25555,11 +23887,17 @@
         <v>-63065855.64761099</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>242.4</v>
+      </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25588,11 +23926,17 @@
         <v>-63065855.64761099</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>242.7</v>
+      </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25621,11 +23965,17 @@
         <v>-63065955.64761099</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>242.7</v>
+      </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25654,11 +24004,17 @@
         <v>-63061394.15255333</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>242.6</v>
+      </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25687,11 +24043,17 @@
         <v>-63061394.15255333</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>242.8</v>
+      </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25720,11 +24082,17 @@
         <v>-63061394.15255333</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>242.8</v>
+      </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25753,11 +24121,17 @@
         <v>-63048739.03685816</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>242.8</v>
+      </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25786,11 +24160,17 @@
         <v>-63066856.45395815</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>242.9</v>
+      </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25819,11 +24199,17 @@
         <v>-62982485.57938574</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>242.8</v>
+      </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25852,11 +24238,17 @@
         <v>-62940071.39758573</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>243</v>
+      </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25885,11 +24277,17 @@
         <v>-62940071.39758573</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25918,11 +24316,17 @@
         <v>-62940071.39758573</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25951,11 +24355,17 @@
         <v>-62940071.39758573</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25984,11 +24394,17 @@
         <v>-62966865.70018573</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26021,7 +24437,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26054,7 +24474,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26087,7 +24511,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26120,7 +24548,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26153,7 +24585,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -26186,7 +24622,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26219,7 +24659,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26252,7 +24696,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26285,7 +24733,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26314,14 +24766,16 @@
         <v>-62793444.68166091</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
-      <c r="L733" t="n">
-        <v>1</v>
-      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L733" t="inlineStr"/>
       <c r="M733" t="inlineStr"/>
     </row>
     <row r="734">
@@ -26347,7 +24801,7 @@
         <v>-62795628.5816609</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26380,7 +24834,7 @@
         <v>-62798068.22526091</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26413,7 +24867,7 @@
         <v>-62770518.5023609</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26479,7 +24933,7 @@
         <v>-62758947.4095609</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26512,7 +24966,7 @@
         <v>-62759028.9293609</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26545,7 +24999,7 @@
         <v>-62750384.92596091</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26578,7 +25032,7 @@
         <v>-62750384.92596091</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26611,7 +25065,7 @@
         <v>-62750384.92596091</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26644,7 +25098,7 @@
         <v>-62746410.9434609</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26677,7 +25131,7 @@
         <v>-62758953.30056091</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26710,7 +25164,7 @@
         <v>-62758953.30056091</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26743,7 +25197,7 @@
         <v>-62758953.30056091</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26776,7 +25230,7 @@
         <v>-62751270.50696091</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26809,7 +25263,7 @@
         <v>-62751270.50696091</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26842,7 +25296,7 @@
         <v>-62780928.20816091</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26875,7 +25329,7 @@
         <v>-62776521.04876091</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26908,7 +25362,7 @@
         <v>-62776521.04876091</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26941,7 +25395,7 @@
         <v>-62774154.51156091</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26974,7 +25428,7 @@
         <v>-62774154.51156091</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27007,7 +25461,7 @@
         <v>-62772059.13006091</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27040,7 +25494,7 @@
         <v>-62846875.39546091</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27073,7 +25527,7 @@
         <v>-62795617.28156091</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27106,7 +25560,7 @@
         <v>-62823760.05076091</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27139,7 +25593,7 @@
         <v>-62838010.68436091</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27172,7 +25626,7 @@
         <v>-62802631.12136091</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27205,7 +25659,7 @@
         <v>-62763249.8870609</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27238,7 +25692,7 @@
         <v>-62763249.8870609</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27271,7 +25725,7 @@
         <v>-62763249.8870609</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27304,7 +25758,7 @@
         <v>-62798644.96626745</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27337,7 +25791,7 @@
         <v>-62788416.23467396</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27370,7 +25824,7 @@
         <v>-62788416.23467396</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27403,7 +25857,7 @@
         <v>-62788416.23467396</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27436,7 +25890,7 @@
         <v>-62791656.25417396</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27469,7 +25923,7 @@
         <v>-62839609.40947396</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27502,7 +25956,7 @@
         <v>-62829519.30727396</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27535,7 +25989,7 @@
         <v>-62829519.30727396</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27568,7 +26022,7 @@
         <v>-62530959.26787397</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27601,7 +26055,7 @@
         <v>-62530959.26787397</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27634,7 +26088,7 @@
         <v>-62530959.26787397</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27667,7 +26121,7 @@
         <v>-62539979.38639709</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27700,7 +26154,7 @@
         <v>-62590992.29549709</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27733,7 +26187,7 @@
         <v>-62590985.58629709</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27766,7 +26220,7 @@
         <v>-62579916.91029709</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27799,7 +26253,7 @@
         <v>-62589216.42779709</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27832,7 +26286,7 @@
         <v>-62589216.42779709</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27865,7 +26319,7 @@
         <v>-62575083.44389708</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27898,7 +26352,7 @@
         <v>-62536503.41019709</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27931,7 +26385,7 @@
         <v>-62536503.41019709</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27964,7 +26418,7 @@
         <v>-62466224.92789709</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27997,7 +26451,7 @@
         <v>-62487931.99769709</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28030,7 +26484,7 @@
         <v>-62487931.99769709</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28063,7 +26517,7 @@
         <v>-62477555.41669708</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28096,7 +26550,7 @@
         <v>-62551601.68319709</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28129,7 +26583,7 @@
         <v>-62499408.09909709</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28162,7 +26616,7 @@
         <v>-62506874.26739709</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28195,7 +26649,7 @@
         <v>-62511071.00209709</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28228,7 +26682,7 @@
         <v>-62509541.11289709</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28261,7 +26715,7 @@
         <v>-62501525.64459709</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28294,7 +26748,7 @@
         <v>-62501525.64459709</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28327,7 +26781,7 @@
         <v>-62500351.83289709</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28360,7 +26814,7 @@
         <v>-62550016.33859709</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28393,7 +26847,7 @@
         <v>-62530426.03199709</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28426,7 +26880,7 @@
         <v>-62536277.20569709</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28459,7 +26913,7 @@
         <v>-62536277.20569709</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28492,7 +26946,7 @@
         <v>-62541033.57939709</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28525,7 +26979,7 @@
         <v>-62530176.11579709</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28558,7 +27012,7 @@
         <v>-62537782.24162009</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28591,7 +27045,7 @@
         <v>-62537678.25162008</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28624,7 +27078,7 @@
         <v>-62393947.2020501</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28657,7 +27111,7 @@
         <v>-62237012.40345009</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28690,7 +27144,7 @@
         <v>-62280151.8327501</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28723,7 +27177,7 @@
         <v>-62307452.30615009</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28756,7 +27210,7 @@
         <v>-62307452.30615009</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -28789,7 +27243,7 @@
         <v>-62307452.30615009</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -28822,7 +27276,7 @@
         <v>-62331137.06005009</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28855,7 +27309,7 @@
         <v>-62302048.62155009</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28888,7 +27342,7 @@
         <v>-62320943.22095009</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28921,7 +27375,7 @@
         <v>-62247482.14905009</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28954,7 +27408,7 @@
         <v>-62247479.56115009</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28987,7 +27441,7 @@
         <v>-62267627.36995009</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29020,7 +27474,7 @@
         <v>-62267627.36995009</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29053,7 +27507,7 @@
         <v>-62267627.36995009</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29086,7 +27540,7 @@
         <v>-62181614.00709818</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29119,7 +27573,7 @@
         <v>-62197546.50339817</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -29152,7 +27606,7 @@
         <v>-62180876.85531218</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29185,7 +27639,7 @@
         <v>-62180876.85531218</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29218,7 +27672,7 @@
         <v>-62184127.20391218</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29251,7 +27705,7 @@
         <v>-62184127.20391218</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29284,7 +27738,7 @@
         <v>-62187710.92661218</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29317,7 +27771,7 @@
         <v>-62097157.73181218</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29350,7 +27804,7 @@
         <v>-62103488.02171218</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29383,7 +27837,7 @@
         <v>-62043491.00761218</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29416,7 +27870,7 @@
         <v>-62055370.73781218</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29449,7 +27903,7 @@
         <v>-62051197.08011217</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29482,7 +27936,7 @@
         <v>-62051197.08011217</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29515,7 +27969,7 @@
         <v>-62022785.88321217</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29548,7 +28002,7 @@
         <v>-62073722.14381217</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29581,7 +28035,7 @@
         <v>-62073722.14381217</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29614,7 +28068,7 @@
         <v>-62072705.14381217</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29647,7 +28101,7 @@
         <v>-62082200.53681217</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29680,7 +28134,7 @@
         <v>-62041410.38061217</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29713,7 +28167,7 @@
         <v>-62044579.58581217</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -29746,7 +28200,7 @@
         <v>-62020579.58581217</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29779,7 +28233,7 @@
         <v>-62039536.97211217</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29812,7 +28266,7 @@
         <v>-61988267.13344871</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29845,7 +28299,7 @@
         <v>-61988267.13344871</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -29878,7 +28332,7 @@
         <v>-61987388.85324871</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29911,7 +28365,7 @@
         <v>-61987388.85324871</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29944,7 +28398,7 @@
         <v>-62005373.9014487</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29977,7 +28431,7 @@
         <v>-62027424.80214871</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30010,7 +28464,7 @@
         <v>-62004919.05209193</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30043,7 +28497,7 @@
         <v>-62014433.05813517</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30076,7 +28530,7 @@
         <v>-62004458.03603517</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30109,7 +28563,7 @@
         <v>-62004458.03603517</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30142,7 +28596,7 @@
         <v>-62004458.03603517</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30175,7 +28629,7 @@
         <v>-62009458.03603517</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30208,7 +28662,7 @@
         <v>-61997512.35918833</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30241,7 +28695,7 @@
         <v>-61997512.35918833</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30274,7 +28728,7 @@
         <v>-61997512.35918833</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30307,7 +28761,7 @@
         <v>-61986894.47048502</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30340,7 +28794,7 @@
         <v>-61986894.47048502</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30373,7 +28827,7 @@
         <v>-61982210.71548501</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30406,7 +28860,7 @@
         <v>-61982210.71548501</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30439,7 +28893,7 @@
         <v>-62008319.60628501</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30472,7 +28926,7 @@
         <v>-61996510.36048501</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30505,7 +28959,7 @@
         <v>-61996510.36048501</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30538,7 +28992,7 @@
         <v>-61992215.48589011</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30571,7 +29025,7 @@
         <v>-61965119.65299011</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30604,7 +29058,7 @@
         <v>-61897576.16719011</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30637,7 +29091,7 @@
         <v>-61969132.09250754</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30670,7 +29124,7 @@
         <v>-61969132.09250754</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30703,7 +29157,7 @@
         <v>-61969132.09250754</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30736,7 +29190,7 @@
         <v>-61893839.64760754</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30769,7 +29223,7 @@
         <v>-61893839.64760754</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30802,7 +29256,7 @@
         <v>-61886365.62934224</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30835,7 +29289,7 @@
         <v>-61897340.88923816</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30868,7 +29322,7 @@
         <v>-61897340.88923816</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30901,7 +29355,7 @@
         <v>-61805766.48898919</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30934,7 +29388,7 @@
         <v>-61834596.07609738</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30967,7 +29421,7 @@
         <v>-61824470.94289738</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -31000,7 +29454,7 @@
         <v>-61893810.08479738</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -31033,7 +29487,7 @@
         <v>-61755571.12079738</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31066,7 +29520,7 @@
         <v>-61431895.66169738</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31099,7 +29553,7 @@
         <v>-60780265.21589738</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31132,7 +29586,7 @@
         <v>-61309620.99019738</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31165,7 +29619,7 @@
         <v>-61186472.57019738</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31198,7 +29652,7 @@
         <v>-61195183.44244402</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -41340,6 +39794,6 @@
       <c r="M1188" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest XRP.xlsx
+++ b/BackTest/2020-01-15 BackTest XRP.xlsx
@@ -12100,7 +12100,7 @@
         <v>498111.2002995994</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>454538.0965599394</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>488396.7787962994</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>757495.6485962993</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>757495.6485962993</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>709458.3207962994</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>538621.7069962993</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>1288699.003320279</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>1518870.284690969</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>1553085.785290969</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>1639684.935699759</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>1636033.850499759</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>1566772.888499759</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>1566772.888499759</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>1531736.416015309</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>1573803.570715309</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>1573803.570715309</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>1528100.580115309</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>1656255.089115309</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>1521842.614515309</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>1535150.536415309</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>1417312.052115309</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>1434613.632285089</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>1534367.140215309</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>1570448.056815309</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>1570448.056815309</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>1570448.056815309</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>1545265.576342119</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>1545265.576342119</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>1449808.490342119</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>1461042.40879558</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>1310726.99719558</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>1320159.66008715</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>1282156.38097872</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>1282156.38097872</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>1191719.01887872</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>1132809.02827872</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>1215559.24017872</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>1249508.24407872</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>1249508.24407872</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>1108607.80437872</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>1136841.42207372</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>1136831.53517372</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>1361902.44185491</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>1454067.246854909</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>1966866.526754909</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>1966866.526754909</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>1966866.526754909</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>1966866.526754909</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>1904624.189154909</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>1897430.881634299</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>1866771.350934299</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>1927696.568834299</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>2032988.021934299</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>1988231.8201343</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>2019191.22409469</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>1970849.691053129</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>1906931.544558669</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>1907855.340258669</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>1907855.340258669</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>1914089.288458669</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>1914089.288458669</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>1950977.643529039</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>1916813.643529039</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>1930702.466988329</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>2183493.309952959</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>2223782.731544959</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>2223782.731544959</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>2188363.926874289</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>2216421.474874289</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>2694812.596881699</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>2694812.596881699</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>2868691.010994839</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>2868691.010994839</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>3567395.799594839</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>3442989.593694839</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>3442989.593694839</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>3512070.722294839</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>3658336.141394839</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>3631046.057415579</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>3631046.057415579</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>3631046.057415579</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>3652480.796815579</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>3360941.784415579</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>3365624.000215579</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>3339675.199184009</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>3348926.930384009</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>3356743.742384009</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>3294713.189684009</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>3367314.219084009</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>3245485.780584008</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>3222775.539984008</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>3187535.318884008</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>3187535.318884008</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>3187535.318884008</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>3145491.336384008</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>3143895.306484008</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>3175980.358331708</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>3175980.358331708</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>3223230.816184008</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>3212339.561784008</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>3212281.490884008</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>3180787.660661328</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>3182695.891261328</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>3034515.392761327</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>3127554.819929737</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>3459306.295171507</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>3428830.707982127</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>3510659.795127067</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>3542896.020404387</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>3524468.173534937</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>3524468.173534937</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>3558802.455434937</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>3528695.841334937</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>3574314.556434937</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>3598936.520834937</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>3585046.745634937</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-64540623.92067864</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-64545546.80767864</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-65005171.5865205</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-65005171.5865205</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19096,11 +19096,17 @@
         <v>-64726964.11746408</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +19135,17 @@
         <v>-64537055.82116408</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19162,11 +19174,17 @@
         <v>-64323355.19696408</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19195,11 +19213,17 @@
         <v>-64323355.19696408</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19228,11 +19252,17 @@
         <v>-64390734.07926407</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19261,11 +19291,17 @@
         <v>-64064704.24046408</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19294,11 +19330,17 @@
         <v>-64064704.24046408</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19327,11 +19369,17 @@
         <v>-64125577.84886408</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19360,11 +19408,17 @@
         <v>-64075336.84626408</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>243.6</v>
+      </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19393,11 +19447,17 @@
         <v>-64660155.59356408</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19426,11 +19486,17 @@
         <v>-64660155.59356408</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19459,11 +19525,17 @@
         <v>-64568872.91376408</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19492,11 +19564,17 @@
         <v>-64441751.99656408</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>243.6</v>
+      </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19525,11 +19603,17 @@
         <v>-64534165.16366408</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>244</v>
+      </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19558,11 +19642,17 @@
         <v>-64567425.29666408</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19591,11 +19681,17 @@
         <v>-64567425.29666408</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>243.4</v>
+      </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19624,11 +19720,17 @@
         <v>-64468451.17765478</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>243.4</v>
+      </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19657,11 +19759,17 @@
         <v>-64462946.49235474</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>243.5</v>
+      </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19690,11 +19798,17 @@
         <v>-64469874.68325474</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +19837,17 @@
         <v>-64321742.00266408</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>243.6</v>
+      </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19756,11 +19876,17 @@
         <v>-64177569.20436408</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19789,11 +19915,17 @@
         <v>-64177569.20436408</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19822,11 +19954,17 @@
         <v>-64269391.63696408</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19855,11 +19993,17 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19888,11 +20032,17 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19921,11 +20071,17 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19954,11 +20110,17 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19987,11 +20149,17 @@
         <v>-64280976.69676409</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20020,11 +20188,17 @@
         <v>-64280976.69676409</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20053,11 +20227,17 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20086,11 +20266,17 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>244</v>
+      </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20119,11 +20305,17 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>244</v>
+      </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20152,11 +20344,17 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>244</v>
+      </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20185,11 +20383,17 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>244</v>
+      </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20218,11 +20422,17 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>244</v>
+      </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20251,11 +20461,17 @@
         <v>-64172430.60446409</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>244</v>
+      </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20284,11 +20500,17 @@
         <v>-64172430.60446409</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20317,11 +20539,17 @@
         <v>-64131134.89876409</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20350,11 +20578,17 @@
         <v>-64131134.89876409</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20383,11 +20617,17 @@
         <v>-64148560.73956409</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20416,11 +20656,17 @@
         <v>-64240088.40026409</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20449,11 +20695,17 @@
         <v>-64235284.32306409</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>244</v>
+      </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20482,11 +20734,17 @@
         <v>-64214688.10356409</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20515,11 +20773,17 @@
         <v>-64317173.57366409</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20548,11 +20812,17 @@
         <v>-64290581.88118276</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>244</v>
+      </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20581,11 +20851,17 @@
         <v>-64295884.96137449</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20614,11 +20890,17 @@
         <v>-64219704.86397449</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>244</v>
+      </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20647,11 +20929,17 @@
         <v>-64171442.66247449</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20680,11 +20968,17 @@
         <v>-64124055.64267449</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20713,11 +21007,17 @@
         <v>-64047546.26844387</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>244.4</v>
+      </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20746,11 +21046,17 @@
         <v>-63997708.64374755</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>244.5</v>
+      </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20779,11 +21085,17 @@
         <v>-64032666.12044755</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>244.7</v>
+      </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20812,11 +21124,17 @@
         <v>-64186567.15884755</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>244.6</v>
+      </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20845,11 +21163,17 @@
         <v>-64186567.15884755</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>244.5</v>
+      </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20878,11 +21202,17 @@
         <v>-64186567.15884755</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>244.5</v>
+      </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20911,11 +21241,17 @@
         <v>-64275875.55284755</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>244.5</v>
+      </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20944,11 +21280,17 @@
         <v>-64235369.47654755</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>244.4</v>
+      </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20977,11 +21319,17 @@
         <v>-64235369.47654755</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>244.5</v>
+      </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21010,11 +21358,17 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>244.5</v>
+      </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21043,11 +21397,17 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21076,11 +21436,17 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21109,11 +21475,17 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21142,11 +21514,17 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21175,11 +21553,17 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21208,11 +21592,17 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21241,11 +21631,17 @@
         <v>-64273525.98884755</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21274,11 +21670,17 @@
         <v>-64273292.17554755</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21307,11 +21709,17 @@
         <v>-64273292.17554755</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21340,11 +21748,17 @@
         <v>-64273292.17554755</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21373,11 +21787,17 @@
         <v>-64352633.58064755</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21406,11 +21826,17 @@
         <v>-64352633.58064755</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>244</v>
+      </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21439,11 +21865,17 @@
         <v>-64352633.58064755</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>244</v>
+      </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21472,11 +21904,17 @@
         <v>-64407633.31234755</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>244</v>
+      </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21505,11 +21943,17 @@
         <v>-64407633.31234755</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21538,11 +21982,17 @@
         <v>-64518885.12804756</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21571,11 +22021,17 @@
         <v>-64487855.65654755</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21604,11 +22060,17 @@
         <v>-64487855.65654755</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21637,11 +22099,17 @@
         <v>-64161913.11294755</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21670,11 +22138,17 @@
         <v>-64161913.11294755</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>244</v>
+      </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21703,11 +22177,17 @@
         <v>-63629482.53014755</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>244</v>
+      </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21736,11 +22216,17 @@
         <v>-63475290.20154756</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21769,11 +22255,17 @@
         <v>-63478174.09334756</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>244.4</v>
+      </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21802,11 +22294,17 @@
         <v>-63255241.24184756</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>244</v>
+      </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21835,11 +22333,17 @@
         <v>-63185852.90144756</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21868,11 +22372,17 @@
         <v>-63147290.83354755</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>244.4</v>
+      </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21901,11 +22411,17 @@
         <v>-63147290.83354755</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>244.5</v>
+      </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21934,11 +22450,17 @@
         <v>-63139938.02474756</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>244.5</v>
+      </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21967,11 +22489,17 @@
         <v>-63139938.02474756</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>244.6</v>
+      </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22000,11 +22528,17 @@
         <v>-63139938.02474756</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>244.6</v>
+      </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22033,11 +22567,17 @@
         <v>-62421959.99654756</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>244.6</v>
+      </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22066,11 +22606,17 @@
         <v>-62421959.99654756</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>244.8</v>
+      </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22099,11 +22645,17 @@
         <v>-62435866.10504755</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>244.8</v>
+      </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22132,11 +22684,17 @@
         <v>-62452403.88404755</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>244.5</v>
+      </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22165,11 +22723,17 @@
         <v>-62452403.88404755</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>244.4</v>
+      </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22198,11 +22762,17 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>244.4</v>
+      </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22231,11 +22801,17 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22264,11 +22840,17 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22297,11 +22879,17 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22330,11 +22918,17 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22363,11 +22957,17 @@
         <v>-62504715.82959767</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22396,11 +22996,17 @@
         <v>-62506317.30219767</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>244.4</v>
+      </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22429,11 +23035,17 @@
         <v>-62545869.76419767</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22462,11 +23074,17 @@
         <v>-62484413.11939767</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22495,11 +23113,17 @@
         <v>-62484413.11939767</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22528,11 +23152,17 @@
         <v>-62567436.17129767</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22561,11 +23191,17 @@
         <v>-62567436.17129767</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22594,11 +23230,17 @@
         <v>-62506516.75772889</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22627,11 +23269,17 @@
         <v>-62502652.04892889</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>244</v>
+      </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22660,11 +23308,17 @@
         <v>-62502652.04892889</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22693,11 +23347,17 @@
         <v>-62504129.20012888</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22726,11 +23386,17 @@
         <v>-62512493.29502888</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>244</v>
+      </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22759,11 +23425,17 @@
         <v>-62480493.29502888</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22792,11 +23464,17 @@
         <v>-62480493.29502888</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22825,11 +23503,17 @@
         <v>-62587065.2497501</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22858,11 +23542,17 @@
         <v>-62608453.9169501</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22891,11 +23581,17 @@
         <v>-62659459.2972501</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>243.4</v>
+      </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22924,11 +23620,17 @@
         <v>-62696434.1011501</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22957,11 +23659,17 @@
         <v>-62957884.34963442</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -22990,11 +23698,17 @@
         <v>-62957884.34963442</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>242.8</v>
+      </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23023,11 +23737,17 @@
         <v>-62999557.69813442</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>242.8</v>
+      </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23056,11 +23776,17 @@
         <v>-63104276.75173442</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>242.5</v>
+      </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23089,11 +23815,17 @@
         <v>-63153584.25413442</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>242.4</v>
+      </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23122,11 +23854,17 @@
         <v>-63089613.39841099</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>242.3</v>
+      </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23155,11 +23893,17 @@
         <v>-63089613.39841099</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>242.5</v>
+      </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23188,11 +23932,17 @@
         <v>-63089613.39841099</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>242.5</v>
+      </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23221,11 +23971,17 @@
         <v>-63089613.39841099</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>242.5</v>
+      </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23254,11 +24010,17 @@
         <v>-63086585.99100869</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>242.5</v>
+      </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23287,11 +24049,17 @@
         <v>-63086905.78740869</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>242.8</v>
+      </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23320,11 +24088,17 @@
         <v>-62880634.90421099</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>242.6</v>
+      </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23353,11 +24127,17 @@
         <v>-62876527.88451099</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>242.7</v>
+      </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23386,11 +24166,17 @@
         <v>-62881306.48641099</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>243</v>
+      </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23427,7 +24213,7 @@
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L698" t="n">
@@ -24433,9 +25219,11 @@
         <v>-62966865.70018573</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -24470,9 +25258,11 @@
         <v>-62996835.22998573</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -24507,9 +25297,11 @@
         <v>-62997358.45118573</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>243</v>
+      </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -24544,9 +25336,11 @@
         <v>-62962579.87348573</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>242.9</v>
+      </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -24581,9 +25375,11 @@
         <v>-62807768.43938573</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>243</v>
+      </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -24618,9 +25414,11 @@
         <v>-62807768.43938573</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -24655,9 +25453,11 @@
         <v>-62763685.32226091</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -24692,9 +25492,11 @@
         <v>-62764512.75096091</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>243.4</v>
+      </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -24729,9 +25531,11 @@
         <v>-62806512.75096091</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -24766,16 +25570,20 @@
         <v>-62793444.68166091</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>243</v>
+      </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L733" t="inlineStr"/>
+      <c r="L733" t="n">
+        <v>1</v>
+      </c>
       <c r="M733" t="inlineStr"/>
     </row>
     <row r="734">
@@ -24801,11 +25609,17 @@
         <v>-62795628.5816609</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24834,11 +25648,17 @@
         <v>-62798068.22526091</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24867,11 +25687,17 @@
         <v>-62770518.5023609</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>243</v>
+      </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24900,11 +25726,17 @@
         <v>-62770518.5023609</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24933,11 +25765,17 @@
         <v>-62758947.4095609</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24966,11 +25804,17 @@
         <v>-62759028.9293609</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>243.2</v>
+      </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24999,11 +25843,17 @@
         <v>-62750384.92596091</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>243.1</v>
+      </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25032,11 +25882,17 @@
         <v>-62750384.92596091</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25065,11 +25921,17 @@
         <v>-62750384.92596091</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25098,11 +25960,17 @@
         <v>-62746410.9434609</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25131,11 +25999,17 @@
         <v>-62758953.30056091</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>243.4</v>
+      </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25164,11 +26038,17 @@
         <v>-62758953.30056091</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25197,11 +26077,17 @@
         <v>-62758953.30056091</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25230,11 +26116,17 @@
         <v>-62751270.50696091</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25263,11 +26155,17 @@
         <v>-62751270.50696091</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>243.4</v>
+      </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25296,11 +26194,17 @@
         <v>-62780928.20816091</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>243.4</v>
+      </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25329,11 +26233,17 @@
         <v>-62776521.04876091</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>243.3</v>
+      </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25362,11 +26272,17 @@
         <v>-62776521.04876091</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>243.5</v>
+      </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25395,11 +26311,17 @@
         <v>-62774154.51156091</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>243.5</v>
+      </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25428,11 +26350,17 @@
         <v>-62774154.51156091</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25461,11 +26389,17 @@
         <v>-62772059.13006091</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25494,11 +26428,17 @@
         <v>-62846875.39546091</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>244</v>
+      </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25527,11 +26467,17 @@
         <v>-62795617.28156091</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25560,11 +26506,17 @@
         <v>-62823760.05076091</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25593,11 +26545,17 @@
         <v>-62838010.68436091</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>244</v>
+      </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25626,11 +26584,17 @@
         <v>-62802631.12136091</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25659,11 +26623,17 @@
         <v>-62763249.8870609</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>244</v>
+      </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25692,11 +26662,17 @@
         <v>-62763249.8870609</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25725,11 +26701,17 @@
         <v>-62763249.8870609</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25758,11 +26740,17 @@
         <v>-62798644.96626745</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25791,11 +26779,17 @@
         <v>-62788416.23467396</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25824,11 +26818,17 @@
         <v>-62788416.23467396</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25857,11 +26857,17 @@
         <v>-62788416.23467396</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25890,11 +26896,17 @@
         <v>-62791656.25417396</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25923,11 +26935,17 @@
         <v>-62839609.40947396</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>243.5</v>
+      </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25956,11 +26974,17 @@
         <v>-62829519.30727396</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>243.4</v>
+      </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25989,11 +27013,17 @@
         <v>-62829519.30727396</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26022,11 +27052,17 @@
         <v>-62530959.26787397</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26055,11 +27091,17 @@
         <v>-62530959.26787397</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26088,11 +27130,17 @@
         <v>-62530959.26787397</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26121,11 +27169,17 @@
         <v>-62539979.38639709</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26154,11 +27208,17 @@
         <v>-62590992.29549709</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26187,11 +27247,17 @@
         <v>-62590985.58629709</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>243.5</v>
+      </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26220,11 +27286,17 @@
         <v>-62579916.91029709</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>243.6</v>
+      </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26253,11 +27325,17 @@
         <v>-62589216.42779709</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26286,11 +27364,17 @@
         <v>-62589216.42779709</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>243.6</v>
+      </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26319,11 +27403,17 @@
         <v>-62575083.44389708</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>243.6</v>
+      </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26352,11 +27442,17 @@
         <v>-62536503.41019709</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26385,11 +27481,17 @@
         <v>-62536503.41019709</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26418,11 +27520,17 @@
         <v>-62466224.92789709</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26451,11 +27559,17 @@
         <v>-62487931.99769709</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>244</v>
+      </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26484,11 +27598,17 @@
         <v>-62487931.99769709</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26517,11 +27637,17 @@
         <v>-62477555.41669708</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26550,11 +27676,17 @@
         <v>-62551601.68319709</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26583,11 +27715,17 @@
         <v>-62499408.09909709</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26616,11 +27754,17 @@
         <v>-62506874.26739709</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26649,11 +27793,17 @@
         <v>-62511071.00209709</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26682,11 +27832,17 @@
         <v>-62509541.11289709</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>243.6</v>
+      </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26715,11 +27871,17 @@
         <v>-62501525.64459709</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26748,11 +27910,17 @@
         <v>-62501525.64459709</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26781,11 +27949,17 @@
         <v>-62500351.83289709</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26814,11 +27988,17 @@
         <v>-62550016.33859709</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26847,11 +28027,17 @@
         <v>-62530426.03199709</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26880,11 +28066,17 @@
         <v>-62536277.20569709</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26913,11 +28105,17 @@
         <v>-62536277.20569709</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26946,11 +28144,17 @@
         <v>-62541033.57939709</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26979,11 +28183,17 @@
         <v>-62530176.11579709</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27012,11 +28222,17 @@
         <v>-62537782.24162009</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27045,11 +28261,17 @@
         <v>-62537678.25162008</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27078,11 +28300,17 @@
         <v>-62393947.2020501</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27111,11 +28339,17 @@
         <v>-62237012.40345009</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27144,11 +28378,17 @@
         <v>-62280151.8327501</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27177,11 +28417,17 @@
         <v>-62307452.30615009</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>244</v>
+      </c>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27210,11 +28456,17 @@
         <v>-62307452.30615009</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27243,11 +28495,17 @@
         <v>-62307452.30615009</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27276,11 +28534,17 @@
         <v>-62331137.06005009</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27309,11 +28573,17 @@
         <v>-62302048.62155009</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27342,11 +28612,17 @@
         <v>-62320943.22095009</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27375,11 +28651,17 @@
         <v>-62247482.14905009</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27408,11 +28690,17 @@
         <v>-62247479.56115009</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>244</v>
+      </c>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27441,11 +28729,17 @@
         <v>-62267627.36995009</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27474,11 +28768,17 @@
         <v>-62267627.36995009</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>244</v>
+      </c>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27507,11 +28807,17 @@
         <v>-62267627.36995009</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>244</v>
+      </c>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27540,11 +28846,17 @@
         <v>-62181614.00709818</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>244</v>
+      </c>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27573,11 +28885,17 @@
         <v>-62197546.50339817</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27606,11 +28924,17 @@
         <v>-62180876.85531218</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27639,11 +28963,17 @@
         <v>-62180876.85531218</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27672,11 +29002,17 @@
         <v>-62184127.20391218</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27705,11 +29041,17 @@
         <v>-62184127.20391218</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>244</v>
+      </c>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27738,11 +29080,17 @@
         <v>-62187710.92661218</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>244</v>
+      </c>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27771,11 +29119,17 @@
         <v>-62097157.73181218</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27804,11 +29158,17 @@
         <v>-62103488.02171218</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27837,11 +29197,17 @@
         <v>-62043491.00761218</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27870,11 +29236,17 @@
         <v>-62055370.73781218</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27903,11 +29275,17 @@
         <v>-62051197.08011217</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>243.7</v>
+      </c>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27936,11 +29314,17 @@
         <v>-62051197.08011217</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27969,11 +29353,17 @@
         <v>-62022785.88321217</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28002,11 +29392,17 @@
         <v>-62073722.14381217</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28035,11 +29431,17 @@
         <v>-62073722.14381217</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28068,11 +29470,17 @@
         <v>-62072705.14381217</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28101,11 +29509,17 @@
         <v>-62082200.53681217</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>244</v>
+      </c>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28134,11 +29548,17 @@
         <v>-62041410.38061217</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>243.9</v>
+      </c>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28167,11 +29587,17 @@
         <v>-62044579.58581217</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>244</v>
+      </c>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28200,11 +29626,17 @@
         <v>-62020579.58581217</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>243.8</v>
+      </c>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28233,11 +29665,17 @@
         <v>-62039536.97211217</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28266,11 +29704,17 @@
         <v>-61988267.13344871</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>244</v>
+      </c>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28299,11 +29743,17 @@
         <v>-61988267.13344871</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28332,11 +29782,17 @@
         <v>-61987388.85324871</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28365,11 +29821,17 @@
         <v>-61987388.85324871</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28398,11 +29860,17 @@
         <v>-62005373.9014487</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28431,11 +29899,17 @@
         <v>-62027424.80214871</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28464,11 +29938,17 @@
         <v>-62004919.05209193</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>244</v>
+      </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28497,11 +29977,17 @@
         <v>-62014433.05813517</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28530,11 +30016,17 @@
         <v>-62004458.03603517</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>244</v>
+      </c>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28563,11 +30055,17 @@
         <v>-62004458.03603517</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28596,11 +30094,17 @@
         <v>-62004458.03603517</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28629,11 +30133,17 @@
         <v>-62009458.03603517</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28662,11 +30172,17 @@
         <v>-61997512.35918833</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28695,11 +30211,17 @@
         <v>-61997512.35918833</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28728,11 +30250,17 @@
         <v>-61997512.35918833</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28761,11 +30289,17 @@
         <v>-61986894.47048502</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28794,11 +30328,17 @@
         <v>-61986894.47048502</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>244.4</v>
+      </c>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28827,11 +30367,17 @@
         <v>-61982210.71548501</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>244.4</v>
+      </c>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28860,11 +30406,17 @@
         <v>-61982210.71548501</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>244.5</v>
+      </c>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28893,11 +30445,17 @@
         <v>-62008319.60628501</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>244.5</v>
+      </c>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28926,11 +30484,17 @@
         <v>-61996510.36048501</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>244.2</v>
+      </c>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28959,11 +30523,17 @@
         <v>-61996510.36048501</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>244.5</v>
+      </c>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28992,11 +30562,17 @@
         <v>-61992215.48589011</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>244.5</v>
+      </c>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29025,11 +30601,17 @@
         <v>-61965119.65299011</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>244.6</v>
+      </c>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29058,11 +30640,17 @@
         <v>-61897576.16719011</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>244.7</v>
+      </c>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29091,11 +30679,15 @@
         <v>-61969132.09250754</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29124,11 +30716,15 @@
         <v>-61969132.09250754</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29157,11 +30753,17 @@
         <v>-61969132.09250754</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>244.7</v>
+      </c>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29190,11 +30792,17 @@
         <v>-61893839.64760754</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>244.7</v>
+      </c>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29223,11 +30831,17 @@
         <v>-61893839.64760754</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>244.9</v>
+      </c>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29256,11 +30870,15 @@
         <v>-61886365.62934224</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29289,11 +30907,15 @@
         <v>-61897340.88923816</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29322,11 +30944,15 @@
         <v>-61897340.88923816</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29355,11 +30981,15 @@
         <v>-61805766.48898919</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29388,11 +31018,15 @@
         <v>-61834596.07609738</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29421,11 +31055,17 @@
         <v>-61824470.94289738</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>244.8</v>
+      </c>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29454,11 +31094,17 @@
         <v>-61893810.08479738</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>245</v>
+      </c>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29487,11 +31133,17 @@
         <v>-61755571.12079738</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>244.9</v>
+      </c>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29520,11 +31172,17 @@
         <v>-61431895.66169738</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>245.2</v>
+      </c>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29553,11 +31211,15 @@
         <v>-60780265.21589738</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29590,10 +31252,12 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
-      <c r="L879" t="n">
-        <v>1</v>
-      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L879" t="inlineStr"/>
       <c r="M879" t="inlineStr"/>
     </row>
     <row r="880">
@@ -29685,7 +31349,7 @@
         <v>-61155318.57119066</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29718,7 +31382,7 @@
         <v>-61099563.36479066</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29751,7 +31415,7 @@
         <v>-61099563.36479066</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29784,7 +31448,7 @@
         <v>-60954239.79914498</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29817,7 +31481,7 @@
         <v>-60624334.87839066</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29850,7 +31514,7 @@
         <v>-60221578.08103308</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29883,7 +31547,7 @@
         <v>-59891374.67630009</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29916,7 +31580,7 @@
         <v>-58963520.41662277</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29949,7 +31613,7 @@
         <v>-58477677.76797377</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29982,7 +31646,7 @@
         <v>-58884273.71374015</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -30015,7 +31679,7 @@
         <v>-58820078.46654015</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -30048,7 +31712,7 @@
         <v>-59099513.56114015</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30081,7 +31745,7 @@
         <v>-59459725.64364015</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30114,7 +31778,7 @@
         <v>-59551958.82804015</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -30147,7 +31811,7 @@
         <v>-59211208.02915655</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -30180,7 +31844,7 @@
         <v>-59265767.88965655</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30213,7 +31877,7 @@
         <v>-59026968.35294015</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30246,7 +31910,7 @@
         <v>-59112042.21124015</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30279,7 +31943,7 @@
         <v>-59234119.31652375</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30312,7 +31976,7 @@
         <v>-59234119.31652375</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30345,7 +32009,7 @@
         <v>-59284696.97102375</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30378,7 +32042,7 @@
         <v>-59205133.95102375</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30411,7 +32075,7 @@
         <v>-59158646.02302375</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30444,7 +32108,7 @@
         <v>-59199259.63452375</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30477,7 +32141,7 @@
         <v>-59199259.63452375</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30510,7 +32174,7 @@
         <v>-59427331.91382375</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30543,7 +32207,7 @@
         <v>-59233752.31922375</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30576,7 +32240,7 @@
         <v>-59233752.31922375</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30609,7 +32273,7 @@
         <v>-59233752.31922375</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30642,7 +32306,7 @@
         <v>-59233752.31922375</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30675,7 +32339,7 @@
         <v>-59302597.16452374</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30708,7 +32372,7 @@
         <v>-59139492.49392375</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30741,7 +32405,7 @@
         <v>-59338762.17018542</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30939,7 +32603,7 @@
         <v>-58924271.73764708</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30972,7 +32636,7 @@
         <v>-58921741.97704708</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -31005,7 +32669,7 @@
         <v>-59103800.43923746</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -34998,7 +36662,7 @@
         <v>-60735677.84977577</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -37704,7 +39368,7 @@
         <v>-61105887.49737266</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -37737,7 +39401,7 @@
         <v>-60656548.05627775</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -37770,7 +39434,7 @@
         <v>-60656548.05627775</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -37803,7 +39467,7 @@
         <v>-60486942.92257775</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -37836,7 +39500,7 @@
         <v>-60525133.64447775</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -37869,7 +39533,7 @@
         <v>-60772970.28787775</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -37902,7 +39566,7 @@
         <v>-60686043.82417776</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -38001,7 +39665,7 @@
         <v>-60781082.08077775</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -38298,7 +39962,7 @@
         <v>-60879786.33833428</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -38364,7 +40028,7 @@
         <v>-60861783.78953429</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -38397,7 +40061,7 @@
         <v>-60861783.78953429</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -38430,7 +40094,7 @@
         <v>-60835815.71233428</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -38496,7 +40160,7 @@
         <v>-60198369.70953428</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -38727,7 +40391,7 @@
         <v>-60182118.3368484</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -38760,7 +40424,7 @@
         <v>-60142647.33168174</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -38793,7 +40457,7 @@
         <v>-60142647.33168174</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -38826,7 +40490,7 @@
         <v>-60142647.33168174</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -38859,7 +40523,7 @@
         <v>-60372235.27478174</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -38892,7 +40556,7 @@
         <v>-60427766.66907981</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -38925,7 +40589,7 @@
         <v>-60507358.06737981</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -38958,7 +40622,7 @@
         <v>-60507358.06737981</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -39156,7 +40820,7 @@
         <v>-60347640.08407981</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -39189,7 +40853,7 @@
         <v>-60380546.02057981</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
@@ -39222,7 +40886,7 @@
         <v>-60370183.8755798</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -39255,7 +40919,7 @@
         <v>-60219833.5435798</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -39288,7 +40952,7 @@
         <v>-59654744.13202311</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -39321,7 +40985,7 @@
         <v>-59654744.13202311</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -39354,7 +41018,7 @@
         <v>-59927510.1645477</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -39387,7 +41051,7 @@
         <v>-59927510.1645477</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -39420,7 +41084,7 @@
         <v>-59792740.0552477</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -39453,7 +41117,7 @@
         <v>-59973119.27567967</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -39486,7 +41150,7 @@
         <v>-59863860.33150028</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
@@ -39519,7 +41183,7 @@
         <v>-59863860.33150028</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
@@ -39552,7 +41216,7 @@
         <v>-59863860.33150028</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
@@ -39585,7 +41249,7 @@
         <v>-59777662.07334623</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
@@ -39618,7 +41282,7 @@
         <v>-59603198.61170027</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
@@ -39651,7 +41315,7 @@
         <v>-59219789.74524415</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -39684,7 +41348,7 @@
         <v>-58686237.89077856</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
@@ -39717,7 +41381,7 @@
         <v>-58178083.73709504</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
@@ -39750,7 +41414,7 @@
         <v>-58391385.54208869</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
@@ -39783,7 +41447,7 @@
         <v>-58218279.86196163</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
